--- a/OnBoard/data/lw_pars.xlsx
+++ b/OnBoard/data/lw_pars.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{41D6963E-E35A-416D-8552-0874C39852C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9EB568D3-8595-44FB-B2BD-4870BD1A8415}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{41D6963E-E35A-416D-8552-0874C39852C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5812562-1F8A-41EC-B509-1932F4FB68AF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34395" yWindow="3585" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -159,6 +170,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,15 +442,15 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -452,7 +467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -466,7 +481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -480,7 +495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -494,7 +509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -508,7 +523,7 @@
         <v>2.5242</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -525,7 +540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -541,7 +556,7 @@
         <v>2.5606999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -555,7 +570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -563,7 +578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -577,7 +592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -585,7 +600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -593,7 +608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -607,7 +622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -621,7 +636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -635,7 +650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -649,7 +664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -666,7 +681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -683,7 +698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>

--- a/OnBoard/data/lw_pars.xlsx
+++ b/OnBoard/data/lw_pars.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{41D6963E-E35A-416D-8552-0874C39852C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5812562-1F8A-41EC-B509-1932F4FB68AF}"/>
   <bookViews>
-    <workbookView xWindow="34395" yWindow="3585" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34392" yWindow="3588" windowWidth="28800" windowHeight="15288"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>SOLEVUL</t>
   </si>
@@ -63,9 +62,6 @@
     <t>AEQUOPE</t>
   </si>
   <si>
-    <t>FLEXGLAB</t>
-  </si>
-  <si>
     <t>SEPIOFF</t>
   </si>
   <si>
@@ -118,12 +114,24 @@
   </si>
   <si>
     <t>SCOHRHO</t>
+  </si>
+  <si>
+    <t>PECTJAC</t>
+  </si>
+  <si>
+    <t>SCYOCAN</t>
+  </si>
+  <si>
+    <t>RAJAAST</t>
+  </si>
+  <si>
+    <t>CHLAGLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,19 +460,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -478,7 +486,7 @@
         <v>3.11</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -492,7 +500,7 @@
         <v>3.09</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -506,7 +514,7 @@
         <v>3.23</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -514,7 +522,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>3.0000000000000001E-3</v>
@@ -528,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>2.3999999999999998E-3</v>
@@ -537,7 +545,7 @@
         <v>2.5972</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -545,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <f>(C5+C6)/2</f>
@@ -558,7 +566,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>0.22040999999999999</v>
@@ -567,7 +575,7 @@
         <v>2.7730000000000001</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -575,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -589,7 +597,7 @@
         <v>3.0449999999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -597,15 +605,15 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -619,7 +627,7 @@
         <v>3.343</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -633,12 +641,12 @@
         <v>3.06</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>1.0959999999999999E-2</v>
@@ -647,7 +655,7 @@
         <v>3.01</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -661,15 +669,15 @@
         <v>3.06</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>5.1000000000000004E-3</v>
@@ -678,15 +686,15 @@
         <v>3.1063000000000001</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>5.1000000000000004E-3</v>
@@ -695,12 +703,12 @@
         <v>3.1086</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>2.3999999999999998E-3</v>
@@ -709,7 +717,22 @@
         <v>2.5371999999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/data/lw_pars.xlsx
+++ b/OnBoard/data/lw_pars.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>SOLEVUL</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>PECTJAC</t>
-  </si>
-  <si>
-    <t>SCYOCAN</t>
   </si>
   <si>
     <t>RAJAAST</t>
@@ -447,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +607,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -728,11 +725,6 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
